--- a/z0bug_odoo/z0bug_odoo/testenv/account_rc_type_tax.xlsx
+++ b/z0bug_odoo/z0bug_odoo/testenv/account_rc_type_tax.xlsx
@@ -52,22 +52,22 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
   </si>
   <si>
+    <t xml:space="preserve">external.a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.aa41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.tax_a8aa</t>
   </si>
   <si>
     <t xml:space="preserve">external.aa8av</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external.a41a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external.aa41v</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -327,10 +327,10 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -341,10 +341,10 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
